--- a/Чернобыль.xlsx
+++ b/Чернобыль.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\Chernobylskiy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B6EB8-C80F-4A5B-9AC3-4EDD3F0992D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9BADD-F8E4-4EDB-81E7-5635ED83149F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="374">
   <si>
     <t>Year</t>
   </si>
@@ -519,10 +519,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">25 апреля
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1:00
 </t>
   </si>
@@ -536,11 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">28 апреля
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 апреля
-25 апреля
 </t>
   </si>
   <si>
@@ -1265,9 +1256,6 @@
     <t>https://imgtest.mir24.tv/uploaded/images/2021/April/45a4bef2c984d387454f144b3933bbf3a7c54022231e68b8a4752adf566f2452.jpg</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/proxy/5BiG-V2SF4nvGU4HSfKg0nDjsKR_sKQgBv02-rbX7AVP_rek2gyc7M5sIsE7wfytIPEewQ28-y7RVYX03K4mItqF9U0</t>
-  </si>
-  <si>
     <t>https://sun9-65.userapi.com/impg/giFGfYSJgf3VsR8bQ2UIWf9GmH3bBm6c0WFFDw/KnIAD3UyJgk.jpg?size=390x259&amp;quality=96&amp;sign=80da2c8b8a15821c9409737ff5d082fe&amp;type=album</t>
   </si>
   <si>
@@ -1391,9 +1379,6 @@
     <t>https://avatars.dzeninfra.ru/get-zen_doc/1895194/pub_5ccdc4dcac1ad900b3c695d8_5ccdc57114686000b3027a1b/scale_1200</t>
   </si>
   <si>
-    <t>https://img1.teletype.in/files/4e/1e/4e1e4614-ccf8-47be-aabe-c4ff06401710.jpeg</t>
-  </si>
-  <si>
     <t>https://gdb.rferl.org/403E99B4-70C0-4D10-B41D-CF35BD805319_cx0_cy4_cw0_w1200_r1.jpg</t>
   </si>
   <si>
@@ -1446,9 +1431,6 @@
   </si>
   <si>
     <t>https://icdn.lenta.ru/images/2020/04/18/19/20200418193824569/pic_39f36176044cdc8ff4c23b16d595efb5.png</t>
-  </si>
-  <si>
-    <t>https://icdn.lenta.ru/images/2020/04/18/20/20200418200809860/pic_ec9c35a6fb1bdcfa7bbf2dc4fac30c84.png</t>
   </si>
   <si>
     <t>https://cs7.pikabu.ru/post_img/big/2017/10/20/10/1508519137186818793.jpg</t>
@@ -1488,9 +1470,6 @@
     <t>https://content.onliner.by/news/1100x5616/60e720a52f18f3dc978be9a372df93e5.jpeg</t>
   </si>
   <si>
-    <t>https://sibgenco.online/upload/medialibrary/80c/80cea33cc2b1a928cdbb9981df0b78d9.jpg</t>
-  </si>
-  <si>
     <t>https://etnosvit.com/wp-content/uploads/2019/03/chornobyl-768x512.jpg</t>
   </si>
   <si>
@@ -1546,6 +1525,30 @@
   </si>
   <si>
     <t>https://aif-s3.aif.ru/images/019/953/7db912c26db79382ce409d379d3f9a29.jpg</t>
+  </si>
+  <si>
+    <t>25 апреля</t>
+  </si>
+  <si>
+    <t>https://avatars.dzeninfra.ru/get-zen_doc/1888987/pub_637f69b97bb85b1cb26bc33d_637f6b54138d207c35cf6374/scale_1200</t>
+  </si>
+  <si>
+    <t>https://cdn.forbes.ru/files/story_images/tass_15350246.jpg__1587736905__49157.jpg</t>
+  </si>
+  <si>
+    <t>https://topwar.ru/uploads/posts/2021-04/1618730388_1618730410.jpg</t>
+  </si>
+  <si>
+    <t>https://gdb.rferl.org/F0A69935-42B1-43AE-A0E0-316974CA6AED_w1200_r1.jpg</t>
+  </si>
+  <si>
+    <t>https://ichef.bbci.co.uk/ace/ws/640/amz/worldservice/live/assets/images/2015/03/19/150319170138_chernbyl_protection_promo_624x351_epa.jpg</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/proxy/yTiHeNbuC-j3ml7felA5PlnBueLanVehvTT7QamK4DlbzAFXgydiGQWlSV5hqSN5A-ibuLxiB5M-lVeApRwh</t>
   </si>
 </sst>
 </file>
@@ -2138,9 +2141,9 @@
   </sheetPr>
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,7 +2241,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2274,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2310,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -2344,7 +2347,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -2380,7 +2383,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -2414,7 +2417,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -2448,7 +2451,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -2484,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -2526,7 +2529,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -2562,7 +2565,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -2598,7 +2601,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -2634,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -2670,7 +2673,7 @@
         <v>38</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -2706,7 +2709,7 @@
         <v>39</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2742,7 +2745,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2778,7 +2781,7 @@
         <v>41</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2812,7 +2815,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2848,7 +2851,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2884,7 +2887,7 @@
         <v>59</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2920,7 +2923,7 @@
         <v>60</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2956,7 +2959,7 @@
         <v>62</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -2992,7 +2995,7 @@
         <v>64</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -3028,7 +3031,7 @@
         <v>66</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -3058,7 +3061,7 @@
         <v>67</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -3094,7 +3097,7 @@
         <v>68</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -3130,7 +3133,7 @@
         <v>70</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -3166,7 +3169,7 @@
         <v>71</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -3202,7 +3205,7 @@
         <v>73</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -3236,7 +3239,7 @@
         <v>76</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -3272,7 +3275,7 @@
         <v>77</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -3296,7 +3299,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -3304,13 +3307,13 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="15" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -3334,7 +3337,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -3342,13 +3345,13 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="L33" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -3372,7 +3375,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3380,13 +3383,13 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="15" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -3410,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -3418,13 +3421,13 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="15" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -3448,7 +3451,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3456,13 +3459,13 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="15" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -3486,7 +3489,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3494,13 +3497,13 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="15" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -3524,7 +3527,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3535,10 +3538,10 @@
         <v>17</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -3562,7 +3565,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3573,10 +3576,10 @@
         <v>17</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -3600,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3611,10 +3614,10 @@
         <v>17</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -3638,7 +3641,7 @@
         <v>26</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3649,10 +3652,10 @@
         <v>17</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3676,7 +3679,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3687,10 +3690,10 @@
         <v>17</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3714,7 +3717,7 @@
         <v>26</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3725,10 +3728,10 @@
         <v>17</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -3752,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3763,10 +3766,10 @@
         <v>17</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3790,7 +3793,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3801,10 +3804,10 @@
         <v>17</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -3828,7 +3831,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3839,10 +3842,10 @@
         <v>17</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -3866,7 +3869,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3877,10 +3880,10 @@
         <v>17</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -3904,7 +3907,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -3915,10 +3918,10 @@
         <v>17</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -3942,7 +3945,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3953,10 +3956,10 @@
         <v>17</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -3980,7 +3983,7 @@
         <v>26</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3991,10 +3994,10 @@
         <v>17</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -4018,7 +4021,7 @@
         <v>26</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -4029,10 +4032,10 @@
         <v>17</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -4056,7 +4059,7 @@
         <v>26</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -4067,10 +4070,10 @@
         <v>17</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -4094,7 +4097,7 @@
         <v>26</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -4105,10 +4108,10 @@
         <v>17</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -4132,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -4143,10 +4146,10 @@
         <v>17</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4170,7 +4173,7 @@
         <v>26</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -4181,10 +4184,10 @@
         <v>17</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4208,7 +4211,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -4219,10 +4222,10 @@
         <v>17</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4246,7 +4249,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -4257,10 +4260,10 @@
         <v>17</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4284,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -4295,10 +4298,10 @@
         <v>17</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -4322,7 +4325,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -4333,10 +4336,10 @@
         <v>17</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4360,7 +4363,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -4371,10 +4374,10 @@
         <v>17</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -4398,7 +4401,7 @@
         <v>26</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -4409,10 +4412,10 @@
         <v>17</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -4436,7 +4439,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -4447,10 +4450,10 @@
         <v>17</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4474,7 +4477,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -4485,10 +4488,10 @@
         <v>17</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4512,7 +4515,7 @@
         <v>27</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -4520,13 +4523,13 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4550,7 +4553,7 @@
         <v>27</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -4558,13 +4561,13 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4588,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -4596,13 +4599,13 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4626,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -4634,13 +4637,13 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -4664,7 +4667,7 @@
         <v>27</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -4672,13 +4675,13 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4702,7 +4705,7 @@
         <v>27</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4710,13 +4713,13 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4740,7 +4743,7 @@
         <v>27</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -4748,13 +4751,13 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4778,7 +4781,7 @@
         <v>27</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -4786,13 +4789,13 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -4816,7 +4819,7 @@
         <v>27</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -4824,13 +4827,13 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4854,7 +4857,7 @@
         <v>27</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -4862,13 +4865,13 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4892,7 +4895,7 @@
         <v>27</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -4900,13 +4903,13 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4930,7 +4933,7 @@
         <v>27</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -4938,13 +4941,13 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -4968,7 +4971,7 @@
         <v>27</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -4976,13 +4979,13 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -5006,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -5014,13 +5017,13 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -5044,7 +5047,7 @@
         <v>28</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -5052,13 +5055,13 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -5082,7 +5085,7 @@
         <v>28</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -5090,13 +5093,13 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5120,7 +5123,7 @@
         <v>29</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -5128,13 +5131,13 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5164,13 +5167,13 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5200,13 +5203,13 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5236,13 +5239,13 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -5272,13 +5275,13 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5308,13 +5311,13 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -5344,13 +5347,13 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -5380,13 +5383,13 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5416,13 +5419,13 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -5452,13 +5455,13 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -5488,13 +5491,13 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -5524,13 +5527,13 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -5560,13 +5563,13 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -5596,13 +5599,13 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -5632,13 +5635,13 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L94" s="18" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -5668,13 +5671,13 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -5704,13 +5707,13 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -5740,13 +5743,13 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -5776,13 +5779,13 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
@@ -5812,13 +5815,13 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
@@ -5848,13 +5851,13 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
@@ -5881,10 +5884,10 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
@@ -5914,13 +5917,13 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
@@ -5947,10 +5950,10 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
@@ -5980,13 +5983,13 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -6016,13 +6019,13 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
@@ -6051,10 +6054,10 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
@@ -6085,10 +6088,10 @@
         <v>46</v>
       </c>
       <c r="K107" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
@@ -6118,13 +6121,13 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
@@ -6154,13 +6157,13 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
@@ -6190,13 +6193,13 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
@@ -6226,13 +6229,13 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
@@ -6262,13 +6265,13 @@
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
@@ -6298,13 +6301,13 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
@@ -6334,13 +6337,13 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L114" s="18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
@@ -6370,13 +6373,13 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L115" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
@@ -6406,13 +6409,13 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L116" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
@@ -6442,13 +6445,13 @@
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L117" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
@@ -6479,10 +6482,10 @@
         <v>44</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L118" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
@@ -6510,13 +6513,13 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K119" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L119" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
@@ -6544,13 +6547,13 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L120" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
@@ -6578,13 +6581,13 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L121" s="18" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
@@ -6614,13 +6617,13 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L122" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
@@ -6650,13 +6653,13 @@
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L123" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
@@ -6835,102 +6838,97 @@
     <hyperlink ref="L48" r:id="rId25" xr:uid="{B657D426-3F6C-4F52-9EBF-55CEC9D92110}"/>
     <hyperlink ref="L17" r:id="rId26" xr:uid="{701DDFD9-2A49-468C-A5F6-D92C26529C13}"/>
     <hyperlink ref="L16" r:id="rId27" xr:uid="{A6594345-D61F-4D7C-90F4-54A1522EE661}"/>
-    <hyperlink ref="L49" r:id="rId28" xr:uid="{7116055D-AACA-4FE4-B675-93DD70AB505F}"/>
-    <hyperlink ref="L34" r:id="rId29" xr:uid="{D714E2BF-613B-4D2D-9174-E2FED459DFB4}"/>
-    <hyperlink ref="L15" r:id="rId30" xr:uid="{9A8E473E-70CE-4523-8678-378B3992014A}"/>
-    <hyperlink ref="L2" r:id="rId31" xr:uid="{090583C3-545E-41A2-9918-BB9AEE1B4F02}"/>
-    <hyperlink ref="L3" r:id="rId32" xr:uid="{3BD44F7C-E1D2-4DD7-A7A8-D6BC27FA0466}"/>
-    <hyperlink ref="L4" r:id="rId33" xr:uid="{75326E45-783E-4A6F-9495-C802E6723CA0}"/>
-    <hyperlink ref="L82" r:id="rId34" xr:uid="{814B1FD2-D86C-4696-9F6E-F66A3EFAE4AD}"/>
-    <hyperlink ref="L46" r:id="rId35" xr:uid="{0B6A67B0-ACF3-4E33-B133-77DF6FCA609B}"/>
-    <hyperlink ref="L47" r:id="rId36" xr:uid="{7B6B8381-3864-4BDB-863B-212CCBA982F2}"/>
-    <hyperlink ref="L7" r:id="rId37" xr:uid="{A47BD7B5-06DE-4DAA-A7F0-3BC6C3DC84FC}"/>
-    <hyperlink ref="L80" r:id="rId38" xr:uid="{A8FC4D7B-D31A-4077-B9B1-CF78FAC2379C}"/>
-    <hyperlink ref="L79" r:id="rId39" xr:uid="{39C5E2A0-22DD-4239-B40A-CD0AD020EDF5}"/>
-    <hyperlink ref="L51" r:id="rId40" xr:uid="{15E10E23-746A-4AA5-87F6-65F9E177D1EC}"/>
-    <hyperlink ref="L24" r:id="rId41" xr:uid="{6574A8F5-527D-46B0-A863-5159D57E8DD8}"/>
-    <hyperlink ref="L103" r:id="rId42" xr:uid="{00C99B93-8754-481E-8F92-AAED08B046B6}"/>
-    <hyperlink ref="L107" r:id="rId43" xr:uid="{170AA993-7068-4720-8A68-ED01A218050F}"/>
-    <hyperlink ref="L114" r:id="rId44" xr:uid="{B22D5B4F-C624-4E3F-BE6B-27178FE9F242}"/>
-    <hyperlink ref="L117" r:id="rId45" xr:uid="{A33845F4-1947-4E7E-B0E3-EF2C857ADA2C}"/>
-    <hyperlink ref="L116" r:id="rId46" xr:uid="{69B930D2-9C37-4B52-88B8-ACBC6C1DBF33}"/>
-    <hyperlink ref="L83" r:id="rId47" xr:uid="{ABEFF2C9-5D7F-40EB-863A-18A19CB19BDC}"/>
-    <hyperlink ref="L64" r:id="rId48" xr:uid="{2FEB01C9-CBF5-4A71-9F1E-F7C14A32826E}"/>
-    <hyperlink ref="L73" r:id="rId49" xr:uid="{181913EC-96C6-4C3E-8A8D-3D89A3B4A8CE}"/>
-    <hyperlink ref="L74" r:id="rId50" xr:uid="{6FC9872F-2425-4576-8A95-FAB673A2F8D9}"/>
-    <hyperlink ref="L66" r:id="rId51" xr:uid="{F4AA6BD1-F03D-4846-86AE-BC3F5ED107F9}"/>
-    <hyperlink ref="L65" r:id="rId52" xr:uid="{CDF82FB2-63F5-45F8-B1AE-6E3D70A85D12}"/>
-    <hyperlink ref="L72" r:id="rId53" xr:uid="{7F90DA4D-1303-4325-9BCF-42D98F9A4FAF}"/>
-    <hyperlink ref="L77" r:id="rId54" xr:uid="{63121C13-1528-43AB-A30D-C45FF4F1FBD3}"/>
-    <hyperlink ref="L118" r:id="rId55" xr:uid="{006BEAB5-BF18-4A46-96F0-AE2F260A5341}"/>
-    <hyperlink ref="L115" r:id="rId56" xr:uid="{BFBFA4EF-0976-41F8-8E56-FBD73A259170}"/>
-    <hyperlink ref="L121" r:id="rId57" xr:uid="{9F43DDF5-D731-4438-866D-9C8EA631B73A}"/>
-    <hyperlink ref="L122" r:id="rId58" xr:uid="{40581B34-A852-41EE-B344-2912F75A2784}"/>
-    <hyperlink ref="L119" r:id="rId59" xr:uid="{2D3A5588-DD65-4F61-91D0-1DFF2BC28045}"/>
-    <hyperlink ref="L106" r:id="rId60" xr:uid="{ABD20856-B65B-4AB9-8787-0B2AE4AE7C79}"/>
-    <hyperlink ref="L104" r:id="rId61" xr:uid="{2AB1DC1D-26F5-4A4B-8DE1-36E31536AB3D}"/>
-    <hyperlink ref="L100" r:id="rId62" xr:uid="{8C4EDF0C-EDDE-4FB0-8637-6A79D6414E8F}"/>
-    <hyperlink ref="L95" r:id="rId63" xr:uid="{35F3240C-DE9C-4E05-9D54-177201986360}"/>
-    <hyperlink ref="L89" r:id="rId64" xr:uid="{361C6BFB-B902-4482-84BC-1FA419BFC7FA}"/>
-    <hyperlink ref="L76" r:id="rId65" xr:uid="{A7A5CAB9-F09A-4DC0-B80B-AD263FEA0D50}"/>
-    <hyperlink ref="L75" r:id="rId66" xr:uid="{F8BA18A0-02A4-4492-8607-43C28A19FDAE}"/>
-    <hyperlink ref="L30" r:id="rId67" xr:uid="{D88C6AE9-546E-4A99-AD66-B7EF9E8B5192}"/>
-    <hyperlink ref="L31" r:id="rId68" xr:uid="{B2E8EB8A-311D-4164-A7B4-DB5383154951}"/>
-    <hyperlink ref="L94" r:id="rId69" xr:uid="{EF3676BC-3522-4F99-A87F-0BD8C6BDB589}"/>
-    <hyperlink ref="L60" r:id="rId70" xr:uid="{19E7D457-3510-4680-AB97-5383B1A50E90}"/>
-    <hyperlink ref="L35" r:id="rId71" xr:uid="{26977F8F-4784-4DD7-8307-7B05C9F3BD17}"/>
-    <hyperlink ref="L36" r:id="rId72" xr:uid="{EF796710-014E-45A0-A942-9268DFA8FBE7}"/>
-    <hyperlink ref="L61" r:id="rId73" xr:uid="{253725DD-5C24-4A4F-8C05-A36E4040417E}"/>
-    <hyperlink ref="L110" r:id="rId74" xr:uid="{6EFE93AF-942C-41A1-B46B-505F737F0155}"/>
-    <hyperlink ref="L37" r:id="rId75" xr:uid="{6BB8D77E-142F-4338-8EE5-29C171457012}"/>
-    <hyperlink ref="L62" r:id="rId76" xr:uid="{629E59D7-7A3A-44DE-B8E5-49F800788E8E}"/>
-    <hyperlink ref="L63" r:id="rId77" xr:uid="{0BFA0CC1-217E-47AD-A303-11B73EB5EE65}"/>
-    <hyperlink ref="L38" r:id="rId78" xr:uid="{D0644C57-69DA-4594-A873-FE152175D81C}"/>
-    <hyperlink ref="L39" r:id="rId79" xr:uid="{A677E5D2-1BBF-4866-A876-E60835F3F18B}"/>
-    <hyperlink ref="L67" r:id="rId80" xr:uid="{1DE86BC6-3AED-4972-86E7-EF76D3875588}"/>
-    <hyperlink ref="L40" r:id="rId81" xr:uid="{0834EE94-24C5-41CF-BE52-9AB0BE584183}"/>
-    <hyperlink ref="L68" r:id="rId82" xr:uid="{BCFA4D48-CEBA-4F92-95C9-E0343E022EAB}"/>
-    <hyperlink ref="L69" r:id="rId83" xr:uid="{30A5461F-CC5A-4C3C-93F4-B5E2AB8F4CBC}"/>
-    <hyperlink ref="L41" r:id="rId84" xr:uid="{38374EEC-25C9-47C9-8EAB-70DD59373128}"/>
-    <hyperlink ref="L42" r:id="rId85" xr:uid="{BCF5990B-3EE8-420B-BEB7-9EA10103E2B0}"/>
-    <hyperlink ref="L70" r:id="rId86" xr:uid="{850C0AED-B8D4-495C-9F74-AC34B15E5A81}"/>
-    <hyperlink ref="L43" r:id="rId87" xr:uid="{165E4CD9-EBA2-4B48-B67A-57689F2C7D8D}"/>
-    <hyperlink ref="L50" r:id="rId88" xr:uid="{5FC9DF97-2D1C-4D30-A14E-2FD7CBC9C1EE}"/>
-    <hyperlink ref="L120" r:id="rId89" xr:uid="{891EFEF2-A3D6-4F5F-815A-08AE0DFB58E0}"/>
-    <hyperlink ref="L71" r:id="rId90" xr:uid="{0980553F-7710-42E3-9E73-708C2488A1D5}"/>
-    <hyperlink ref="L53" r:id="rId91" xr:uid="{CC474793-FEB6-413A-9637-9422517B0824}"/>
-    <hyperlink ref="L81" r:id="rId92" xr:uid="{03FF313D-E1CA-4EEC-BA65-CB070764B3FD}"/>
-    <hyperlink ref="L56" r:id="rId93" xr:uid="{D0E54BE3-D8CC-4A08-9E49-067729B965E5}"/>
-    <hyperlink ref="L84" r:id="rId94" xr:uid="{BEC582D5-FC36-4301-A860-CC2BDAB63CBE}"/>
-    <hyperlink ref="L52" r:id="rId95" xr:uid="{157F2875-CFC7-4538-AA37-FCC5E203E4FA}"/>
-    <hyperlink ref="L58" r:id="rId96" xr:uid="{939FA72F-FF97-413F-ADBF-02BCB2F463CE}"/>
-    <hyperlink ref="L85" r:id="rId97" xr:uid="{B9855BC2-4F5B-4E1F-BFF1-36D742E97840}"/>
-    <hyperlink ref="L87" r:id="rId98" xr:uid="{D22E7D84-B12C-47AD-925D-11BC11734C6E}"/>
-    <hyperlink ref="L109" r:id="rId99" xr:uid="{6D1493C2-9883-4CE0-B852-E81C4108D1AF}"/>
-    <hyperlink ref="L93" r:id="rId100" xr:uid="{62A795BF-277D-4FBD-9348-532E7E86208C}"/>
-    <hyperlink ref="L113" r:id="rId101" xr:uid="{47EB929F-025B-486E-93D3-943B39C46BAA}"/>
-    <hyperlink ref="L92" r:id="rId102" xr:uid="{DBA892F2-4333-45DB-ABE9-BA34785314A6}"/>
-    <hyperlink ref="L57" r:id="rId103" xr:uid="{168F2EEF-93E8-4D74-8666-59546A4E862B}"/>
-    <hyperlink ref="L108" r:id="rId104" xr:uid="{79BC8147-39AA-4547-BEBF-50D5DE41466F}"/>
-    <hyperlink ref="L105" r:id="rId105" xr:uid="{8CFEC450-8BE8-4D69-9A6D-7A0FE4FAEBA0}"/>
-    <hyperlink ref="L102" r:id="rId106" xr:uid="{DDA5D3E9-5664-455C-9C9D-54B9A99B4A2F}"/>
-    <hyperlink ref="L59" r:id="rId107" xr:uid="{1CDB5BCB-E89B-45D8-9D42-66C3240F195F}"/>
-    <hyperlink ref="L97" r:id="rId108" xr:uid="{3070A8A2-1792-4A03-9A1C-CAE8791D3655}"/>
-    <hyperlink ref="L88" r:id="rId109" xr:uid="{7FFCE18E-F5BA-4EBE-8E98-0BFADCA4D082}"/>
-    <hyperlink ref="L111" r:id="rId110" xr:uid="{545A5B78-A7B4-4198-AC1F-BCDC6D66392E}"/>
-    <hyperlink ref="L112" r:id="rId111" xr:uid="{A50F3BAD-11A5-4175-BFE4-D9896A2B9DC8}"/>
-    <hyperlink ref="L101" r:id="rId112" xr:uid="{FC0FCB65-341E-4550-BE7A-070DB39E5FA1}"/>
-    <hyperlink ref="L99" r:id="rId113" xr:uid="{80EE443E-C871-4A06-BE63-BAF5258E7F69}"/>
-    <hyperlink ref="L98" r:id="rId114" xr:uid="{FF95694A-991A-48C3-AAF1-5EC770069704}"/>
-    <hyperlink ref="L96" r:id="rId115" xr:uid="{9D0C3F1E-7C2D-4A9D-AAFB-1236D7240947}"/>
-    <hyperlink ref="L55" r:id="rId116" xr:uid="{3612FC65-99FB-486D-B2C8-27D6F99AA9AC}"/>
-    <hyperlink ref="L54" r:id="rId117" xr:uid="{791E058F-5A3F-4503-BED0-268B2D283CCB}"/>
-    <hyperlink ref="L86" r:id="rId118" xr:uid="{A63EC5D9-F623-4636-93E2-0A9BF6239E8C}"/>
-    <hyperlink ref="L90" r:id="rId119" xr:uid="{B2C2E50D-BCA1-4EC8-B9B2-CB24980871BF}"/>
-    <hyperlink ref="L91" r:id="rId120" xr:uid="{9EA4E9CD-EBCB-4653-8412-0484A6386B28}"/>
+    <hyperlink ref="L34" r:id="rId28" xr:uid="{D714E2BF-613B-4D2D-9174-E2FED459DFB4}"/>
+    <hyperlink ref="L15" r:id="rId29" xr:uid="{9A8E473E-70CE-4523-8678-378B3992014A}"/>
+    <hyperlink ref="L2" r:id="rId30" xr:uid="{090583C3-545E-41A2-9918-BB9AEE1B4F02}"/>
+    <hyperlink ref="L3" r:id="rId31" xr:uid="{3BD44F7C-E1D2-4DD7-A7A8-D6BC27FA0466}"/>
+    <hyperlink ref="L4" r:id="rId32" xr:uid="{75326E45-783E-4A6F-9495-C802E6723CA0}"/>
+    <hyperlink ref="L82" r:id="rId33" xr:uid="{814B1FD2-D86C-4696-9F6E-F66A3EFAE4AD}"/>
+    <hyperlink ref="L46" r:id="rId34" xr:uid="{0B6A67B0-ACF3-4E33-B133-77DF6FCA609B}"/>
+    <hyperlink ref="L47" r:id="rId35" xr:uid="{7B6B8381-3864-4BDB-863B-212CCBA982F2}"/>
+    <hyperlink ref="L7" r:id="rId36" xr:uid="{A47BD7B5-06DE-4DAA-A7F0-3BC6C3DC84FC}"/>
+    <hyperlink ref="L80" r:id="rId37" xr:uid="{A8FC4D7B-D31A-4077-B9B1-CF78FAC2379C}"/>
+    <hyperlink ref="L51" r:id="rId38" xr:uid="{15E10E23-746A-4AA5-87F6-65F9E177D1EC}"/>
+    <hyperlink ref="L24" r:id="rId39" xr:uid="{6574A8F5-527D-46B0-A863-5159D57E8DD8}"/>
+    <hyperlink ref="L103" r:id="rId40" xr:uid="{00C99B93-8754-481E-8F92-AAED08B046B6}"/>
+    <hyperlink ref="L107" r:id="rId41" xr:uid="{170AA993-7068-4720-8A68-ED01A218050F}"/>
+    <hyperlink ref="L114" r:id="rId42" xr:uid="{B22D5B4F-C624-4E3F-BE6B-27178FE9F242}"/>
+    <hyperlink ref="L117" r:id="rId43" xr:uid="{A33845F4-1947-4E7E-B0E3-EF2C857ADA2C}"/>
+    <hyperlink ref="L116" r:id="rId44" xr:uid="{69B930D2-9C37-4B52-88B8-ACBC6C1DBF33}"/>
+    <hyperlink ref="L83" r:id="rId45" xr:uid="{ABEFF2C9-5D7F-40EB-863A-18A19CB19BDC}"/>
+    <hyperlink ref="L64" r:id="rId46" xr:uid="{2FEB01C9-CBF5-4A71-9F1E-F7C14A32826E}"/>
+    <hyperlink ref="L73" r:id="rId47" xr:uid="{181913EC-96C6-4C3E-8A8D-3D89A3B4A8CE}"/>
+    <hyperlink ref="L74" r:id="rId48" xr:uid="{6FC9872F-2425-4576-8A95-FAB673A2F8D9}"/>
+    <hyperlink ref="L66" r:id="rId49" xr:uid="{F4AA6BD1-F03D-4846-86AE-BC3F5ED107F9}"/>
+    <hyperlink ref="L65" r:id="rId50" xr:uid="{CDF82FB2-63F5-45F8-B1AE-6E3D70A85D12}"/>
+    <hyperlink ref="L72" r:id="rId51" xr:uid="{7F90DA4D-1303-4325-9BCF-42D98F9A4FAF}"/>
+    <hyperlink ref="L77" r:id="rId52" xr:uid="{63121C13-1528-43AB-A30D-C45FF4F1FBD3}"/>
+    <hyperlink ref="L118" r:id="rId53" xr:uid="{006BEAB5-BF18-4A46-96F0-AE2F260A5341}"/>
+    <hyperlink ref="L115" r:id="rId54" xr:uid="{BFBFA4EF-0976-41F8-8E56-FBD73A259170}"/>
+    <hyperlink ref="L122" r:id="rId55" xr:uid="{40581B34-A852-41EE-B344-2912F75A2784}"/>
+    <hyperlink ref="L119" r:id="rId56" xr:uid="{2D3A5588-DD65-4F61-91D0-1DFF2BC28045}"/>
+    <hyperlink ref="L106" r:id="rId57" xr:uid="{ABD20856-B65B-4AB9-8787-0B2AE4AE7C79}"/>
+    <hyperlink ref="L104" r:id="rId58" xr:uid="{2AB1DC1D-26F5-4A4B-8DE1-36E31536AB3D}"/>
+    <hyperlink ref="L100" r:id="rId59" xr:uid="{8C4EDF0C-EDDE-4FB0-8637-6A79D6414E8F}"/>
+    <hyperlink ref="L95" r:id="rId60" xr:uid="{35F3240C-DE9C-4E05-9D54-177201986360}"/>
+    <hyperlink ref="L89" r:id="rId61" xr:uid="{361C6BFB-B902-4482-84BC-1FA419BFC7FA}"/>
+    <hyperlink ref="L76" r:id="rId62" xr:uid="{A7A5CAB9-F09A-4DC0-B80B-AD263FEA0D50}"/>
+    <hyperlink ref="L75" r:id="rId63" xr:uid="{F8BA18A0-02A4-4492-8607-43C28A19FDAE}"/>
+    <hyperlink ref="L30" r:id="rId64" xr:uid="{D88C6AE9-546E-4A99-AD66-B7EF9E8B5192}"/>
+    <hyperlink ref="L31" r:id="rId65" xr:uid="{B2E8EB8A-311D-4164-A7B4-DB5383154951}"/>
+    <hyperlink ref="L60" r:id="rId66" xr:uid="{19E7D457-3510-4680-AB97-5383B1A50E90}"/>
+    <hyperlink ref="L35" r:id="rId67" xr:uid="{26977F8F-4784-4DD7-8307-7B05C9F3BD17}"/>
+    <hyperlink ref="L36" r:id="rId68" xr:uid="{EF796710-014E-45A0-A942-9268DFA8FBE7}"/>
+    <hyperlink ref="L61" r:id="rId69" xr:uid="{253725DD-5C24-4A4F-8C05-A36E4040417E}"/>
+    <hyperlink ref="L110" r:id="rId70" xr:uid="{6EFE93AF-942C-41A1-B46B-505F737F0155}"/>
+    <hyperlink ref="L37" r:id="rId71" xr:uid="{6BB8D77E-142F-4338-8EE5-29C171457012}"/>
+    <hyperlink ref="L62" r:id="rId72" xr:uid="{629E59D7-7A3A-44DE-B8E5-49F800788E8E}"/>
+    <hyperlink ref="L63" r:id="rId73" xr:uid="{0BFA0CC1-217E-47AD-A303-11B73EB5EE65}"/>
+    <hyperlink ref="L38" r:id="rId74" xr:uid="{D0644C57-69DA-4594-A873-FE152175D81C}"/>
+    <hyperlink ref="L39" r:id="rId75" xr:uid="{A677E5D2-1BBF-4866-A876-E60835F3F18B}"/>
+    <hyperlink ref="L67" r:id="rId76" xr:uid="{1DE86BC6-3AED-4972-86E7-EF76D3875588}"/>
+    <hyperlink ref="L40" r:id="rId77" xr:uid="{0834EE94-24C5-41CF-BE52-9AB0BE584183}"/>
+    <hyperlink ref="L68" r:id="rId78" xr:uid="{BCFA4D48-CEBA-4F92-95C9-E0343E022EAB}"/>
+    <hyperlink ref="L69" r:id="rId79" xr:uid="{30A5461F-CC5A-4C3C-93F4-B5E2AB8F4CBC}"/>
+    <hyperlink ref="L41" r:id="rId80" xr:uid="{38374EEC-25C9-47C9-8EAB-70DD59373128}"/>
+    <hyperlink ref="L42" r:id="rId81" xr:uid="{BCF5990B-3EE8-420B-BEB7-9EA10103E2B0}"/>
+    <hyperlink ref="L70" r:id="rId82" xr:uid="{850C0AED-B8D4-495C-9F74-AC34B15E5A81}"/>
+    <hyperlink ref="L43" r:id="rId83" xr:uid="{165E4CD9-EBA2-4B48-B67A-57689F2C7D8D}"/>
+    <hyperlink ref="L120" r:id="rId84" xr:uid="{891EFEF2-A3D6-4F5F-815A-08AE0DFB58E0}"/>
+    <hyperlink ref="L71" r:id="rId85" xr:uid="{0980553F-7710-42E3-9E73-708C2488A1D5}"/>
+    <hyperlink ref="L53" r:id="rId86" xr:uid="{CC474793-FEB6-413A-9637-9422517B0824}"/>
+    <hyperlink ref="L81" r:id="rId87" xr:uid="{03FF313D-E1CA-4EEC-BA65-CB070764B3FD}"/>
+    <hyperlink ref="L56" r:id="rId88" xr:uid="{D0E54BE3-D8CC-4A08-9E49-067729B965E5}"/>
+    <hyperlink ref="L84" r:id="rId89" xr:uid="{BEC582D5-FC36-4301-A860-CC2BDAB63CBE}"/>
+    <hyperlink ref="L52" r:id="rId90" xr:uid="{157F2875-CFC7-4538-AA37-FCC5E203E4FA}"/>
+    <hyperlink ref="L58" r:id="rId91" xr:uid="{939FA72F-FF97-413F-ADBF-02BCB2F463CE}"/>
+    <hyperlink ref="L85" r:id="rId92" xr:uid="{B9855BC2-4F5B-4E1F-BFF1-36D742E97840}"/>
+    <hyperlink ref="L87" r:id="rId93" xr:uid="{D22E7D84-B12C-47AD-925D-11BC11734C6E}"/>
+    <hyperlink ref="L109" r:id="rId94" xr:uid="{6D1493C2-9883-4CE0-B852-E81C4108D1AF}"/>
+    <hyperlink ref="L93" r:id="rId95" xr:uid="{62A795BF-277D-4FBD-9348-532E7E86208C}"/>
+    <hyperlink ref="L92" r:id="rId96" xr:uid="{DBA892F2-4333-45DB-ABE9-BA34785314A6}"/>
+    <hyperlink ref="L57" r:id="rId97" xr:uid="{168F2EEF-93E8-4D74-8666-59546A4E862B}"/>
+    <hyperlink ref="L108" r:id="rId98" xr:uid="{79BC8147-39AA-4547-BEBF-50D5DE41466F}"/>
+    <hyperlink ref="L105" r:id="rId99" xr:uid="{8CFEC450-8BE8-4D69-9A6D-7A0FE4FAEBA0}"/>
+    <hyperlink ref="L102" r:id="rId100" xr:uid="{DDA5D3E9-5664-455C-9C9D-54B9A99B4A2F}"/>
+    <hyperlink ref="L59" r:id="rId101" xr:uid="{1CDB5BCB-E89B-45D8-9D42-66C3240F195F}"/>
+    <hyperlink ref="L97" r:id="rId102" xr:uid="{3070A8A2-1792-4A03-9A1C-CAE8791D3655}"/>
+    <hyperlink ref="L88" r:id="rId103" xr:uid="{7FFCE18E-F5BA-4EBE-8E98-0BFADCA4D082}"/>
+    <hyperlink ref="L111" r:id="rId104" xr:uid="{545A5B78-A7B4-4198-AC1F-BCDC6D66392E}"/>
+    <hyperlink ref="L112" r:id="rId105" xr:uid="{A50F3BAD-11A5-4175-BFE4-D9896A2B9DC8}"/>
+    <hyperlink ref="L101" r:id="rId106" xr:uid="{FC0FCB65-341E-4550-BE7A-070DB39E5FA1}"/>
+    <hyperlink ref="L99" r:id="rId107" xr:uid="{80EE443E-C871-4A06-BE63-BAF5258E7F69}"/>
+    <hyperlink ref="L98" r:id="rId108" xr:uid="{FF95694A-991A-48C3-AAF1-5EC770069704}"/>
+    <hyperlink ref="L96" r:id="rId109" xr:uid="{9D0C3F1E-7C2D-4A9D-AAFB-1236D7240947}"/>
+    <hyperlink ref="L55" r:id="rId110" xr:uid="{3612FC65-99FB-486D-B2C8-27D6F99AA9AC}"/>
+    <hyperlink ref="L54" r:id="rId111" xr:uid="{791E058F-5A3F-4503-BED0-268B2D283CCB}"/>
+    <hyperlink ref="L86" r:id="rId112" xr:uid="{A63EC5D9-F623-4636-93E2-0A9BF6239E8C}"/>
+    <hyperlink ref="L90" r:id="rId113" xr:uid="{B2C2E50D-BCA1-4EC8-B9B2-CB24980871BF}"/>
+    <hyperlink ref="L91" r:id="rId114" xr:uid="{9EA4E9CD-EBCB-4653-8412-0484A6386B28}"/>
+    <hyperlink ref="L49" r:id="rId115" xr:uid="{8F0960F1-CAF0-458C-BE0C-437F8866B04B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
-  <legacyDrawing r:id="rId122"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId116"/>
+  <legacyDrawing r:id="rId117"/>
 </worksheet>
 </file>